--- a/src/attributions/attributions_ig_traj_48.xlsx
+++ b/src/attributions/attributions_ig_traj_48.xlsx
@@ -1007,76 +1007,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1262785275054431</v>
+        <v>-0.2717639125330553</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0.1375664626490088</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.008299141680906705</v>
+        <v>0.05564725620187621</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03145856560436439</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0206901075095339</v>
+        <v>0.2461745552287528</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0</v>
+        <v>0.03616381813325194</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01404290114015532</v>
+        <v>-0.01582213514579673</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05080115154593888</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.007378284878040759</v>
+        <v>0.05122428901293338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.00733955678123699</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004737093762304205</v>
+        <v>0.02784376496674116</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05175064987573341</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1088,49 +1088,49 @@
         <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01035861357055667</v>
+        <v>0.03763514142856294</v>
       </c>
       <c r="AD2" t="n">
         <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.07747130752372657</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.04152337549271542</v>
+        <v>-0.07738713164272713</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.1241349686563552</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001152708817309463</v>
+        <v>0.05552206465110866</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>-0.0209957533853693</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.02388000050740158</v>
+        <v>-0.007351330195856463</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01566005818313618</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1139,76 +1139,76 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1843565851309643</v>
+        <v>0.8386971223921375</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.1268062962171813</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.1876087116511155</v>
+        <v>0.2344745835234303</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.03352047919875684</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.007921838197429186</v>
+        <v>0.01165605736911748</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>-0.01312734132739728</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.001339292209109932</v>
+        <v>-0.02482681264845063</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.00349108220473754</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
         <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.04341495205725796</v>
+        <v>-0.2112502268336715</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0.1484766305526171</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03998672453737562</v>
+        <v>0.1760500673486523</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.0663344577139494</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
         <v>-0</v>
@@ -1217,31 +1217,31 @@
         <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.006532157783598945</v>
+        <v>0.4679596772684885</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.03251019861913433</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.1353387877779294</v>
+        <v>0.1184006670258547</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.2070714332465811</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
         <v>-0</v>
@@ -1250,52 +1250,52 @@
         <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.04922691739802038</v>
+        <v>-0.2570560087745806</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>0.04619890866866354</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03307400329732013</v>
+        <v>-0.04433451936075194</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.03379604409202892</v>
+        <v>-0</v>
       </c>
       <c r="CJ2" t="n">
         <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.0162803306731717</v>
+        <v>0.02150252792824683</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0</v>
+        <v>-0.08825701892552168</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0001189981659864981</v>
+        <v>-0.06047217408845437</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.03649129540192378</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>0</v>
@@ -1304,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.06399337727167873</v>
+        <v>-0.2709816202984696</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0.1143275382457886</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02206695391465438</v>
+        <v>-0.05331428992695469</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.03446464975718519</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
         <v>-0</v>
@@ -1331,25 +1331,25 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03835860349311563</v>
+        <v>-0.1151498999137408</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0</v>
+        <v>0.1143199085593073</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.2595765736022411</v>
+        <v>0.08456413132370727</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01399302092279625</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
@@ -1358,76 +1358,76 @@
         <v>-0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.06455603017076721</v>
+        <v>-0.1124685596799247</v>
       </c>
       <c r="DP2" t="n">
         <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0</v>
+        <v>0.01901402647304874</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02707366267218484</v>
+        <v>-0.2188300019062368</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.04668218815378508</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW2" t="n">
         <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0384339563062567</v>
+        <v>-0.06471281187102559</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.1260514905660427</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.08614905552454519</v>
+        <v>-0.07605688040170958</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.02529808517616071</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.06104669148434665</v>
+        <v>-0.3408969066159093</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.05684870729194187</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.03724651574078314</v>
+        <v>0.1801170848755793</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.08751269252318981</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1439,103 +1439,103 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.04034102210229607</v>
+        <v>-0.176795240695256</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0</v>
+        <v>0.146375547429815</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.01126864828474415</v>
+        <v>-0.1321175000015064</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.1745504906991836</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
         <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX2" t="n">
         <v>-0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.03388063928126103</v>
+        <v>-0.2837066347362159</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>0.05309006776409136</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.003958543094735844</v>
+        <v>-0.08175195669296158</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.02397420044720122</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.1107826162825344</v>
+        <v>0.08239257836362388</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>0.1031977710055535</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01082599065854253</v>
+        <v>-0.1226667426625221</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.1375275388878273</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.13601209055063</v>
+        <v>-0.1455243250631313</v>
       </c>
       <c r="FR2" t="n">
         <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>0.1286039588682148</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01547866025913458</v>
+        <v>0.03428978433473066</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.07330523842205211</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
         <v>-0</v>
@@ -1544,84 +1544,84 @@
         <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0402526029710348</v>
+        <v>-0.1004250696365458</v>
       </c>
       <c r="GA2" t="n">
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>-0.04525862776623237</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.007155964603289729</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>-0.08983426295640784</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02353809719973416</v>
+        <v>-0.03202814367547176</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01324110023379137</v>
+        <v>0.1113934137081209</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.069303903489618e-05</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0.1104955728797129</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.01155778662910383</v>
+        <v>0.05199854912621037</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.004833673307553319</v>
+        <v>-0.1807025436050785</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01415432704419473</v>
+        <v>-0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0.02228151333217465</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.03038328018294953</v>
+        <v>-0.0343432260680662</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.02705467662501264</v>
+        <v>0.01865055633895712</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.01189943477967832</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
         <v>-0</v>
@@ -1657,52 +1657,52 @@
         <v>-0</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0</v>
+        <v>0.1000089414976324</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3" t="n">
         <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08204265682030326</v>
+        <v>0.02333056147441931</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.06163415767315893</v>
+        <v>-0.05886948385079192</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.04678395845661749</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0</v>
+        <v>0.02775371002015992</v>
       </c>
       <c r="AM3" t="n">
         <v>-0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0195832759002752</v>
+        <v>0.03254457407425487</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.01818244865339633</v>
+        <v>-0.06695116639826548</v>
       </c>
       <c r="AQ3" t="n">
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.006472636133933608</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1711,52 +1711,52 @@
         <v>-0</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0</v>
+        <v>0.6029261551086581</v>
       </c>
       <c r="AV3" t="n">
         <v>-0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.07119448522324356</v>
+        <v>-0.1290392553046859</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.07939464086433522</v>
+        <v>-0.4648286882241057</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.02516419939188145</v>
+        <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>0.01888863174751221</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.003424836749471287</v>
+        <v>0.00255790446513077</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.005479771642291157</v>
+        <v>-0.01567538784298995</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.003166640606539763</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
         <v>-0</v>
@@ -1765,25 +1765,25 @@
         <v>-0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>0.1033285287336813</v>
       </c>
       <c r="BN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.05738026418398318</v>
+        <v>-0.01560533264155924</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.05079281292411315</v>
+        <v>0.09207550916514769</v>
       </c>
       <c r="BR3" t="n">
         <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.02114553609624382</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
         <v>-0</v>
@@ -1792,52 +1792,52 @@
         <v>-0</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0</v>
+        <v>0.2295605729565338</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1111268233227056</v>
+        <v>-0.0881900471676173</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.0226688123522806</v>
+        <v>-0.1782343384227654</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.02537493962525005</v>
+        <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0.07680688371900364</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.01411232644376511</v>
+        <v>-0.07120580403264458</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.0118610744685268</v>
+        <v>0.1621803538606368</v>
       </c>
       <c r="CJ3" t="n">
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.0213897256409076</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1846,142 +1846,142 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>-0.0002672587553998631</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.01944674432527847</v>
+        <v>0.01607886096971625</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.003005834171402479</v>
+        <v>0.01360377651572398</v>
       </c>
       <c r="CS3" t="n">
         <v>-0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.01264518238870071</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>-0.08550859030015361</v>
       </c>
       <c r="CX3" t="n">
         <v>-0</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.03171285993120592</v>
+        <v>-0.0895284398743125</v>
       </c>
       <c r="DA3" t="n">
-        <v>-0.006865646055519684</v>
+        <v>0.1633842440009526</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.003037706574973219</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0.07272237209853467</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.07795659734306365</v>
+        <v>0.1643611837961624</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.01867223478501485</v>
+        <v>-0.06611610438097514</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.05216028583834006</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0.04872077079234437</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.05251548631633594</v>
+        <v>0.03338085405855099</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0.06875199609471402</v>
+        <v>-0.1465363845310234</v>
       </c>
       <c r="DT3" t="n">
         <v>-0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001665237816962254</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0</v>
+        <v>-0.07320617392160159</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.08001058927348921</v>
+        <v>-0.03865173885086742</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.04461845707878596</v>
+        <v>0.01846905296115763</v>
       </c>
       <c r="EC3" t="n">
         <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.02024047052530044</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
         <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0.08528809220558146</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -1990,25 +1990,25 @@
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.05228810947292873</v>
+        <v>-0.1185138530334624</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03795992007614537</v>
+        <v>0.18367148804683</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.04848544382815907</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0.02397591826193738</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2017,79 +2017,79 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.02943022302947315</v>
+        <v>-0.002211029483705365</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.06305647057724703</v>
+        <v>0.08582478989862183</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0.03006500091153854</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0.05042325867667775</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.02154198117549147</v>
+        <v>-0.1012513902932331</v>
       </c>
       <c r="FC3" t="n">
-        <v>7.819154517358535e-05</v>
+        <v>0.1449590113216715</v>
       </c>
       <c r="FD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.008327025122484602</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>-0.06257401715495366</v>
       </c>
       <c r="FI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03477357618920412</v>
+        <v>0.04165118466452633</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0.03723042150632654</v>
+        <v>-0.02267792181712583</v>
       </c>
       <c r="FM3" t="n">
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.02357180686997542</v>
+        <v>-0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0.1999003304332203</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2098,43 +2098,43 @@
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.06980018378661999</v>
+        <v>-0.08523866960114145</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0.02426371958125085</v>
+        <v>0.1923911633861628</v>
       </c>
       <c r="FV3" t="n">
         <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.05602311043015191</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>-0.1401373875552664</v>
       </c>
       <c r="GA3" t="n">
         <v>-0</v>
       </c>
       <c r="GB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0.05696440733222709</v>
+        <v>0.05895656749319546</v>
       </c>
       <c r="GE3" t="n">
         <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.09454015978957828</v>
+        <v>0</v>
       </c>
       <c r="GG3" t="n">
         <v>0</v>
@@ -2145,46 +2145,46 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1147683677272371</v>
+        <v>-0.05927471996957697</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0</v>
+        <v>0.03912099263079169</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.007726154841293608</v>
+        <v>0.01714310947728674</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02535612811681643</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03125745882235716</v>
+        <v>0.1376298625255397</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-0</v>
+        <v>-0.01422751994350488</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004286806629525651</v>
+        <v>-0.01559430116298739</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08455600442672122</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2193,25 +2193,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0006619204701544182</v>
+        <v>0.02394484395167601</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0.004615828678236046</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01185303893626684</v>
+        <v>0.01623045364301895</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04202186282109718</v>
+        <v>-0</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2223,49 +2223,49 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.004787125937368346</v>
+        <v>-0.007705877519324496</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>0.05360246858874571</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.09583152112833535</v>
+        <v>-0.06342200334134089</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.2618287873934741</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0006077324778139616</v>
+        <v>0.009776791372805908</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.01373817247157857</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0389304932751548</v>
+        <v>-0.01275629403079074</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02477410653030481</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>-0</v>
@@ -2274,112 +2274,112 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1556518888099002</v>
+        <v>0.4396705722046241</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.07549769447146823</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.1666437567186793</v>
+        <v>0.1718605442628428</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.01456392901615274</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.007522534363267188</v>
+        <v>0.003110380702953861</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.004724601058278597</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.008277433047492981</v>
+        <v>-0.03840062615055147</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.01332398692033601</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04618495321959713</v>
+        <v>-0.04328029153902712</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.09372112433946692</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04679637836590404</v>
+        <v>0.1258335336871191</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.1996759842614428</v>
+        <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
         <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.01281870211538123</v>
+        <v>0.2098265942275511</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.08411437909318041</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1949158099177997</v>
+        <v>0.04085096681771847</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.2816419715212766</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>-0</v>
@@ -2388,52 +2388,52 @@
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.06064795492622042</v>
+        <v>-0.119004844365723</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>0.00542128479176686</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.08421870834624905</v>
+        <v>-0.01748668552372171</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.06493221008505748</v>
+        <v>-0</v>
       </c>
       <c r="CJ4" t="n">
         <v>-0</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>-0.01208144655521439</v>
+        <v>0.01343466957643222</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.04490135937459768</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.007731783229351885</v>
+        <v>-0.01776909116090334</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.02913751901814715</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
         <v>0</v>
@@ -2442,46 +2442,46 @@
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.06169855817316511</v>
+        <v>-0.1195819220595963</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>0.04350572895815162</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.05824458153369318</v>
+        <v>-0.02242230407197036</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.07392666096702306</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.03015253312907429</v>
+        <v>-0.02606604011242259</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>0.07397317217521231</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.2926337694664564</v>
+        <v>0.02999993204657133</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.01655959657427553</v>
+        <v>-0</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
@@ -2490,85 +2490,85 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1200730269757798</v>
+        <v>-0.04767656180638783</v>
       </c>
       <c r="DP4" t="n">
         <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0</v>
+        <v>0.04690807967290404</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07131663914421708</v>
+        <v>-0.05723311914022636</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0.07412183842668862</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU4" t="n">
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
         <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.06513410610645438</v>
+        <v>-0.05825678251167736</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.03028015191814403</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.1519271434682225</v>
+        <v>-0.03028863664266815</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.08301606058751558</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE4" t="n">
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.1160115809771048</v>
+        <v>-0.1543071589908845</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.003554283003611189</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.02267775046489015</v>
+        <v>0.08242596732915772</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.1322265632262516</v>
+        <v>-0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>-0</v>
@@ -2577,240 +2577,240 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.05045118826803646</v>
+        <v>-0.06621236937161107</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>0.05748028486428892</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.0327921209758414</v>
+        <v>-0.06604847135132837</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.2116380136861036</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03707299591427523</v>
+        <v>-0.1252208792234788</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>0.008955634503973251</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05479858085815709</v>
+        <v>-0.02785546852080015</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.05387621822676911</v>
+        <v>-0</v>
       </c>
       <c r="FD4" t="n">
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.09606206941891954</v>
+        <v>0.0127666889193152</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>0.0354692261278739</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.05066933078038765</v>
+        <v>-0.03164959190971255</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0.1665989821514667</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.1135153041306032</v>
+        <v>-0.01381176684273236</v>
       </c>
       <c r="FR4" t="n">
         <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>0.04780474581068531</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.03934081853447671</v>
+        <v>0.04716218747281108</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.09628133945175224</v>
+        <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX4" t="n">
         <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.05211580679892772</v>
+        <v>-0.01060101259159146</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>-0.06158668019539466</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0.1057556980480875</v>
+        <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0.01751728344500938</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.006108429832879438</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01297964279625459</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.05947839052059955</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02014131780740623</v>
+        <v>-0.09389536226734993</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>-0.2455511232810363</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.002445573551909185</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1059645119131345</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.003329604280512014</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05997708359610233</v>
+        <v>0.2074768377522384</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.02603317212633346</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0204635232155393</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.01130001196482598</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.06628658416356512</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.007387662055873158</v>
+        <v>-0.04671764992796745</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.5263438409831108</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.2284089670230683</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2637358388249852</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.5344924981171185</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1634330530429811</v>
+        <v>0.3775279125238902</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>-0</v>
@@ -2819,25 +2819,25 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.05499829875491409</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.02085601051232065</v>
+        <v>-0</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.03382323921541119</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>0.04922651034188119</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.06211169432281977</v>
+        <v>0.1203398412767712</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2846,49 +2846,49 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0</v>
+        <v>-0.2097403633119653</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0571458887125241</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.1100828571855274</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>0.1344159047266177</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1250417782510679</v>
+        <v>-0.2051248099733403</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>-0.1493884999391402</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.005895188968211055</v>
+        <v>-0</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.002349665513251667</v>
+        <v>-0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.001113986197724735</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01749421544250455</v>
+        <v>0.09469169555742921</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
         <v>-0</v>
@@ -2900,46 +2900,46 @@
         <v>-0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0.2733121448130337</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.01052691203004147</v>
+        <v>-0</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.1343978433106743</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>-0.3649298327765292</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.05532784814871085</v>
+        <v>-0.5338263780331133</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>0.129308374989314</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.08078802096662559</v>
+        <v>0</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0.136244070170372</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0</v>
+        <v>-0.1852702069922577</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.1100424445120286</v>
+        <v>-0.1975119923612373</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2951,28 +2951,28 @@
         <v>0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>0.04309078681457221</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0.01659008200385696</v>
+        <v>-0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02941276807470932</v>
+        <v>-0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.006527514562855155</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.08863632674532523</v>
+        <v>-0.2236832208741217</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
         <v>-0</v>
@@ -2981,52 +2981,52 @@
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>0.1130313255091276</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.005273984587258491</v>
+        <v>-0</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0.02774792671102887</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>0.07326085470081897</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.004385612066332355</v>
+        <v>0.1073417341834621</v>
       </c>
       <c r="CR5" t="n">
         <v>-0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>-0.0271526858751482</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0.04855186431030226</v>
+        <v>0</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.08734107307994252</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>-0.1781420499279719</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.06289193420220975</v>
+        <v>-0.258380432077322</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0.1313247990887978</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0.1116099808075251</v>
+        <v>0</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.06540895827988195</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.05669583834136768</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.1226169711232121</v>
+        <v>0.5060637452182976</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
@@ -3062,49 +3062,49 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>0.2152365727927489</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0394168864623434</v>
+        <v>0</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0.05805335806569173</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0</v>
+        <v>0.2846811289886347</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.03026946479397055</v>
+        <v>0.3028061841731819</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0</v>
+        <v>0.05847030428185849</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.1778714343585937</v>
+        <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.005422811385750615</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>-0.01385920010300006</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.164994496762767</v>
+        <v>0.3547854749738574</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>-0</v>
@@ -3113,25 +3113,25 @@
         <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>0.2054783172548613</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.07710702861871505</v>
+        <v>-0</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.08845988565605846</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>-0.186601178426508</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.1439858040460645</v>
+        <v>-0.7893407852200922</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
         <v>0</v>
@@ -3143,22 +3143,22 @@
         <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>-0.1070315220470281</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0.0685877936617685</v>
+        <v>-0</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.1006744746501695</v>
+        <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>-0.3368363386044505</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.06655110924773676</v>
+        <v>-0.4743274134469955</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
         <v>0</v>
@@ -3167,25 +3167,25 @@
         <v>-0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0.05463886787417516</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0.04257880323547258</v>
+        <v>-0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.06205469527247916</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>-0.1176088921013789</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.07261027427691975</v>
+        <v>-0.2171479992540898</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
         <v>0</v>
@@ -3194,22 +3194,22 @@
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>0.2107636709819989</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.03594989545536643</v>
+        <v>-0</v>
       </c>
       <c r="FI5" t="n">
-        <v>-0.1388762875435233</v>
+        <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0.1509759068089152</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.03201192304359515</v>
+        <v>0.264307542890528</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
@@ -3221,28 +3221,28 @@
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>-0</v>
+        <v>0.2704386535125174</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0.1020472842534969</v>
+        <v>0</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.03190994925879233</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0</v>
+        <v>0.1717167987077647</v>
       </c>
       <c r="FT5" t="n">
-        <v>-0.08066677850894642</v>
+        <v>0.2509316539049173</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
@@ -3251,162 +3251,162 @@
         <v>-0</v>
       </c>
       <c r="FY5" t="n">
-        <v>-0</v>
+        <v>-0.1077918401653117</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0.06308917836856918</v>
+        <v>-0</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0.1724008420642349</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0</v>
+        <v>0.06159915775398803</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
       </c>
       <c r="GE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0127622679691772</v>
+        <v>-0.1023166603993821</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01396785720403216</v>
+        <v>0.1334708743275397</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.002126517623013225</v>
+        <v>0.008323036906432581</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01735181941905968</v>
+        <v>0.1080455900788902</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.003820876427939452</v>
+        <v>-0.05262605374564808</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.004102828430449073</v>
+        <v>-0.01143353574601447</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01160363511385074</v>
+        <v>0.03800599966786015</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01253209544039548</v>
+        <v>-0.01593274670832169</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01030529235802526</v>
+        <v>-0.009951725988893271</v>
       </c>
       <c r="X6" t="n">
         <v>-0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.09279906836517235</v>
+        <v>0.06441180520014997</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.009969189409742354</v>
+        <v>0.01630607106623002</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.1033271029817938</v>
+        <v>0.01037631747268592</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.002343519701674944</v>
+        <v>0.03128045807606424</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.002406652858528322</v>
+        <v>-0.01202257586137832</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.001021821941651164</v>
+        <v>-0.0003411298345289756</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3418,49 +3418,49 @@
         <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.1140847884510608</v>
+        <v>0.7829937360848687</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02583828027748771</v>
+        <v>-0.07109737879444281</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1321687625439723</v>
+        <v>0.1869645958284494</v>
       </c>
       <c r="AY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.002005141078148598</v>
+        <v>0.005857054400785451</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.005053309531632404</v>
+        <v>-0.004765059629508722</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.002035705930110193</v>
+        <v>-0.02109393914836286</v>
       </c>
       <c r="BH6" t="n">
         <v>-0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ6" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.01472218335417993</v>
+        <v>-0.1154497892178588</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>-0.03134786064270177</v>
+        <v>0.08594870985575864</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02459325710955007</v>
+        <v>0.1104214610118242</v>
       </c>
       <c r="BQ6" t="n">
         <v>-0</v>
@@ -3496,19 +3496,19 @@
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.007936149005255421</v>
+        <v>0.4344552485279188</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.02768850455705324</v>
+        <v>-0.05459516019331215</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01894344826113745</v>
+        <v>0.04326387768791139</v>
       </c>
       <c r="BZ6" t="n">
         <v>0</v>
@@ -3517,79 +3517,79 @@
         <v>-0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>-0.03058392510373456</v>
+        <v>-0.1906851767952706</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.007012364376149065</v>
+        <v>0.09080322286411181</v>
       </c>
       <c r="CH6" t="n">
-        <v>-0.02450094517434877</v>
+        <v>-0.08248790533780187</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ6" t="n">
         <v>-0</v>
       </c>
       <c r="CK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.007456410335232268</v>
+        <v>0.01756482579066194</v>
       </c>
       <c r="CO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.008476497913970671</v>
+        <v>-0.03130027853589856</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.02474498455754127</v>
+        <v>-0.0234893688294805</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
         <v>-0</v>
       </c>
       <c r="CT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU6" t="n">
         <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0.02995041994346725</v>
+        <v>-0.2026405265110542</v>
       </c>
       <c r="CX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.009930262692937385</v>
+        <v>0.122538382037904</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.04672676487604968</v>
+        <v>-0.06217507858514373</v>
       </c>
       <c r="DA6" t="n">
         <v>0</v>
@@ -3601,49 +3601,49 @@
         <v>-0</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>-0.087635599415175</v>
+        <v>-0.0585922975022891</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.009791548125585614</v>
+        <v>0.2177528979271335</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.05046238175824137</v>
+        <v>0.01743974054764159</v>
       </c>
       <c r="DJ6" t="n">
         <v>-0</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
         <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.02633046476816827</v>
+        <v>-0.1290018178708132</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.07510004522533702</v>
+        <v>-0.02419805471595818</v>
       </c>
       <c r="DR6" t="n">
-        <v>-0.03355604776346612</v>
+        <v>-0.08522977785360865</v>
       </c>
       <c r="DS6" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.1118163886602076</v>
+        <v>-0.006672685291060661</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04308017356998172</v>
+        <v>-0.01876629357700619</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01261020351676826</v>
+        <v>-0.05589948118466512</v>
       </c>
       <c r="EB6" t="n">
         <v>-0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="ED6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE6" t="n">
         <v>0</v>
@@ -3688,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>-0.01951603219610635</v>
+        <v>-0.182362622347526</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.03585120263789477</v>
+        <v>0.04971526702220146</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.02544786282023366</v>
+        <v>0.02116385516529884</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL6" t="n">
         <v>-0</v>
@@ -3715,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>-0.0222238845255907</v>
+        <v>-0.1436842641994063</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.01273462052941578</v>
+        <v>0.0948947192943983</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01205126224761317</v>
+        <v>-0.0661999784045806</v>
       </c>
       <c r="ET6" t="n">
         <v>-0</v>
       </c>
       <c r="EU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>-0.03110145244015706</v>
+        <v>-0.2066181955217062</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.01042280602746776</v>
+        <v>0.09969036825854843</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.02866866319263942</v>
+        <v>-0.07698782129799374</v>
       </c>
       <c r="FC6" t="n">
         <v>-0</v>
@@ -3763,22 +3763,22 @@
         <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.06124646171597704</v>
+        <v>-0.1345744260676691</v>
       </c>
       <c r="FI6" t="n">
         <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.009126067570989806</v>
+        <v>0.1136683115641812</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.0906626608944386</v>
+        <v>-0.03309111174514312</v>
       </c>
       <c r="FL6" t="n">
         <v>-0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.0002831734923227445</v>
+        <v>-0.01550914276889056</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.09066386009371216</v>
+        <v>0.05749047715842337</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.001324480469199173</v>
+        <v>-0.05780616381491914</v>
       </c>
       <c r="FU6" t="n">
         <v>-0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.01984906681896879</v>
+        <v>0.03017369908160932</v>
       </c>
       <c r="GA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>-0.04630127990459243</v>
+        <v>-0.009230694390606886</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE6" t="n">
         <v>-0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>-0</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.07948691158712537</v>
+        <v>-0.03015339516869775</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3861,97 +3861,97 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06113018568704047</v>
+        <v>-0.008554142914738586</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01465878183622945</v>
+        <v>0.009623180908296867</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002752571808623055</v>
+        <v>-0.0007625238923381686</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07478717216576942</v>
+        <v>0.005579345154877792</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7" t="n">
         <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1033499413291655</v>
+        <v>-0.01994493963443146</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-8.472263329517619e-11</v>
+        <v>-1.635163909413377e-11</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.01126975594072655</v>
+        <v>-0.02393197900605437</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.08474978848983249</v>
+        <v>-0.03010420988333275</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3416687137515957</v>
+        <v>0.01466125238496263</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2516858767941108</v>
+        <v>-0.04124138119502033</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07678347196300155</v>
+        <v>-0.04018615078562691</v>
       </c>
       <c r="AJ7" t="n">
         <v>-0</v>
@@ -3960,16 +3960,16 @@
         <v>-0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.01214529515056057</v>
+        <v>-0.004758552017410456</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.05497211696082267</v>
+        <v>-0.006401818366994537</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3978,34 +3978,34 @@
         <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.05960006553420983</v>
+        <v>-0.01354236467909466</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2043784442059719</v>
+        <v>0.01600504583758798</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
         <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.4324073745301039</v>
+        <v>0.08667669375528247</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>-0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.1050791545914366</v>
+        <v>-0.02736592466677886</v>
       </c>
       <c r="BB7" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.01673812278112452</v>
+        <v>-0.00187131927826327</v>
       </c>
       <c r="BE7" t="n">
         <v>0</v>
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.01960506604140889</v>
+        <v>-0.007918541330861263</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.01568940442694585</v>
+        <v>-0.02089014987968536</v>
       </c>
       <c r="BK7" t="n">
         <v>-0</v>
@@ -4041,34 +4041,34 @@
         <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.2101707064448944</v>
+        <v>0.07813924969786874</v>
       </c>
       <c r="BN7" t="n">
         <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03081935471490384</v>
+        <v>0.04596580280797256</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.2632731317050781</v>
+        <v>0.02273046655772399</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.05763247082538815</v>
+        <v>0.003910018050777305</v>
       </c>
       <c r="BW7" t="n">
         <v>0</v>
@@ -4077,43 +4077,43 @@
         <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.1869021753287442</v>
+        <v>-0.03071902575628532</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0.2179885418804017</v>
+        <v>-0.05717514311553537</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0.04891034198683834</v>
+        <v>-0.01834464261910274</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>0</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.2066645417252645</v>
+        <v>-0.01677245107963923</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.08686482646759168</v>
+        <v>0.02854939743394028</v>
       </c>
       <c r="CL7" t="n">
         <v>-0</v>
@@ -4122,88 +4122,88 @@
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0.004585755670041704</v>
+        <v>0.01186865595721669</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.01003661039856633</v>
+        <v>0.01163973561968071</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.01090744138784905</v>
+        <v>-0.0220110959834103</v>
       </c>
       <c r="CU7" t="n">
         <v>0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0.1095797991747764</v>
+        <v>-0.02015352428961846</v>
       </c>
       <c r="CX7" t="n">
         <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.1479869223282134</v>
+        <v>-0.03004633037139245</v>
       </c>
       <c r="DA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0393234582708437</v>
+        <v>0.02384192550878221</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0.3316561737809128</v>
+        <v>0.003558055220379162</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0376346069044134</v>
+        <v>-0.001496130898323688</v>
       </c>
       <c r="DJ7" t="n">
         <v>0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0025215611774179</v>
+        <v>0.0002203729080812481</v>
       </c>
       <c r="DM7" t="n">
         <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.05284884648112809</v>
+        <v>0.05332886628798952</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.1959205013977753</v>
+        <v>0.06840406192023897</v>
       </c>
       <c r="DS7" t="n">
         <v>0</v>
@@ -4221,16 +4221,16 @@
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.2183498900236907</v>
+        <v>0.06671233818736294</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.2299789094804958</v>
+        <v>0.05966666220808858</v>
       </c>
       <c r="DY7" t="n">
         <v>-0</v>
@@ -4239,43 +4239,43 @@
         <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1672849854181942</v>
+        <v>0.0541404109040067</v>
       </c>
       <c r="EB7" t="n">
         <v>-0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.05362926140456184</v>
+        <v>0.05526329305058766</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.1183026618212485</v>
+        <v>0.005709535944099533</v>
       </c>
       <c r="EH7" t="n">
         <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.1350693729559705</v>
+        <v>-0.01761100085199981</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.1501585971769107</v>
+        <v>0.02374781540608385</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>-0.1501000314498462</v>
+        <v>-0.07163745111723888</v>
       </c>
       <c r="EQ7" t="n">
         <v>-0</v>
@@ -4293,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.09932912574028045</v>
+        <v>-0.06887626690106574</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0.07718570241666997</v>
+        <v>0.03795687039786108</v>
       </c>
       <c r="EW7" t="n">
         <v>-0</v>
@@ -4311,88 +4311,88 @@
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>-0.1217194856067038</v>
+        <v>-0.02518563463452637</v>
       </c>
       <c r="EZ7" t="n">
         <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.1633795844457347</v>
+        <v>-0.01969141888877003</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.09979493152576402</v>
+        <v>0.01268089308478796</v>
       </c>
       <c r="FF7" t="n">
         <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0.01455946384578626</v>
+        <v>0.05767742244544993</v>
       </c>
       <c r="FI7" t="n">
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.03377663288706493</v>
+        <v>-0.01667089795401001</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0.04876607461531251</v>
+        <v>-0.01389082180667602</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0.2196915493056523</v>
+        <v>0.03269651872785705</v>
       </c>
       <c r="FR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
         <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.06077707998735223</v>
+        <v>0.01802245889786516</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0.008725782550471475</v>
+        <v>0.03451763603611537</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0310059896662578</v>
+        <v>-0.004578287464287381</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
@@ -4407,33 +4407,33 @@
         <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.09249573812185903</v>
+        <v>0.07794436859283178</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1352575230785082</v>
+        <v>0.318547149952733</v>
       </c>
       <c r="C8" t="n">
         <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.07272473796627126</v>
+        <v>-0.2035557813141064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02075252379268409</v>
+        <v>0.03866264026194707</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4445,25 +4445,25 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02813878991417693</v>
+        <v>0.07374523967883316</v>
       </c>
       <c r="L8" t="n">
         <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001500196462146764</v>
+        <v>0.006151306899136439</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0005473736303135193</v>
+        <v>-0.001976076049585796</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
@@ -4472,28 +4472,28 @@
         <v>-0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001344330538237381</v>
+        <v>-0.01876242208766698</v>
       </c>
       <c r="U8" t="n">
         <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.002306706923268599</v>
+        <v>-0.005135389617162594</v>
       </c>
       <c r="W8" t="n">
-        <v>-6.445747417299864e-11</v>
+        <v>-6.22461777656197e-11</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA8" t="n">
         <v>-0</v>
@@ -4502,52 +4502,52 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.07443254919778074</v>
+        <v>-0.08755548727019759</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.03238529007007153</v>
+        <v>-0.01148847742327323</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.07965035211607846</v>
+        <v>-0.05329528530490082</v>
       </c>
       <c r="AG8" t="n">
         <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>-0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.02356964776145257</v>
+        <v>0.04478944823098701</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.001981973044660949</v>
+        <v>0.00163221920191159</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.002352374079079166</v>
+        <v>-0.008882347579088181</v>
       </c>
       <c r="AP8" t="n">
         <v>-0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
         <v>-0</v>
@@ -4556,49 +4556,49 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.2044449179480683</v>
+        <v>-0.359238515258985</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0187060355793131</v>
+        <v>0.2148346504405981</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.1091258291113145</v>
+        <v>-0.09634119900262318</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
         <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.002979343327111476</v>
+        <v>-0.004542806915465696</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.01013518826801258</v>
+        <v>-0.004927056009390733</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.008294437450221868</v>
+        <v>0.02912522493874675</v>
       </c>
       <c r="BH8" t="n">
         <v>-0</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
         <v>-0</v>
@@ -4610,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.08355667576843726</v>
+        <v>0.2109221616032724</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.06932229335894831</v>
+        <v>-0.1768482219375357</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01773724415577759</v>
+        <v>0.05601342516953395</v>
       </c>
       <c r="BQ8" t="n">
         <v>0</v>
@@ -4634,19 +4634,19 @@
         <v>0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>-0.006309499057755976</v>
+        <v>-0.2509355349866884</v>
       </c>
       <c r="BW8" t="n">
         <v>-0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.05074470474721452</v>
+        <v>0.06703528104000522</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.01875016119717569</v>
+        <v>-0.02554973934954097</v>
       </c>
       <c r="BZ8" t="n">
         <v>-0</v>
@@ -4655,160 +4655,160 @@
         <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0541457907927365</v>
+        <v>0.1395371651640115</v>
       </c>
       <c r="CF8" t="n">
         <v>-0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0.01824106925977909</v>
+        <v>-0.122580690662975</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.03649645112324549</v>
+        <v>0.09475533020476971</v>
       </c>
       <c r="CI8" t="n">
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM8" t="n">
         <v>-0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.004043440254034027</v>
+        <v>-0.02253789026500498</v>
       </c>
       <c r="CO8" t="n">
         <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.005247402348806481</v>
+        <v>0.02667355538296803</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.03020435283063013</v>
+        <v>0.006076173323674292</v>
       </c>
       <c r="CR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS8" t="n">
         <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.05489408878385902</v>
+        <v>0.1465121036210256</v>
       </c>
       <c r="CX8" t="n">
         <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0.04299574322906192</v>
+        <v>-0.172489075633289</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.04596726160414143</v>
+        <v>0.07099443927723087</v>
       </c>
       <c r="DA8" t="n">
         <v>-0</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.2346822216556283</v>
+        <v>0.05596223369408718</v>
       </c>
       <c r="DG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0.003805027553910566</v>
+        <v>-0.3686369206790918</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.05327312606228352</v>
+        <v>0.2212583517561437</v>
       </c>
       <c r="DJ8" t="n">
         <v>0</v>
       </c>
       <c r="DK8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.02138310024552049</v>
+        <v>0.1926689684664172</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0.05427088192739688</v>
+        <v>0.08290998580371114</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.1344975774884172</v>
+        <v>0.09625641830250371</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT8" t="n">
         <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV8" t="n">
         <v>-0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0.111036263966658</v>
+        <v>0.1052156591978094</v>
       </c>
       <c r="DY8" t="n">
         <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0.04516615295754487</v>
+        <v>0.09798291688559237</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0389119263878385</v>
+        <v>0.05773866477799447</v>
       </c>
       <c r="EB8" t="n">
         <v>-0</v>
@@ -4817,52 +4817,52 @@
         <v>0</v>
       </c>
       <c r="ED8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.04213065523476246</v>
+        <v>0.1158566879065295</v>
       </c>
       <c r="EH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0.07269147597572771</v>
+        <v>-0.1076171738684859</v>
       </c>
       <c r="EJ8" t="n">
-        <v>-0.1628340250627032</v>
+        <v>-0.03619832102446248</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.05125583766963958</v>
+        <v>0.05400662573512645</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.01255201856557981</v>
+        <v>-0.1612185251283049</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.06436921086238317</v>
+        <v>0.08678662253428691</v>
       </c>
       <c r="ET8" t="n">
         <v>0</v>
@@ -4880,43 +4880,43 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.05513384051628312</v>
+        <v>0.1298434451329884</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0.01689501370540448</v>
+        <v>-0.1562973716483247</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.05183886464357861</v>
+        <v>0.09316532635566485</v>
       </c>
       <c r="FC8" t="n">
         <v>0</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE8" t="n">
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0.08148426444163333</v>
+        <v>0.1318385490057032</v>
       </c>
       <c r="FI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.02623491769742661</v>
+        <v>-0.1762334277229842</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.1287935427608596</v>
+        <v>0.004691137597456081</v>
       </c>
       <c r="FL8" t="n">
         <v>0</v>
@@ -4934,16 +4934,16 @@
         <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.03243295352577626</v>
+        <v>0.05362659245513036</v>
       </c>
       <c r="FR8" t="n">
         <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0.06596374356315876</v>
+        <v>-0.04625564666365287</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.03796674638496401</v>
+        <v>0.01433391557080563</v>
       </c>
       <c r="FU8" t="n">
         <v>0</v>
@@ -4952,28 +4952,28 @@
         <v>0</v>
       </c>
       <c r="FW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.05033548416957286</v>
+        <v>-0.02958442968613757</v>
       </c>
       <c r="GA8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.09916180594499222</v>
+        <v>-0.06664016891916327</v>
       </c>
       <c r="GC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE8" t="n">
         <v>0</v>
@@ -4982,24 +4982,24 @@
         <v>-0</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.01879922170456033</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01588190242145318</v>
+        <v>0.1178832232751945</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01597047651846929</v>
+        <v>-0.00918351039836765</v>
       </c>
       <c r="F9" t="n">
         <v>-0</v>
@@ -5008,34 +5008,34 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1879507725149754</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.001600842704101914</v>
       </c>
       <c r="L9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001135192252623668</v>
+        <v>0.08514255654400613</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001087322439433765</v>
+        <v>0.0008616386807893621</v>
       </c>
       <c r="O9" t="n">
         <v>-0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2314712121297906</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>-0</v>
@@ -5044,106 +5044,106 @@
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.008939039579110108</v>
       </c>
       <c r="U9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.007696282992836605</v>
+        <v>0.009614233028477541</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003899535011184936</v>
+        <v>-0.000528512708020955</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05966799914094043</v>
+        <v>-0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.02138593254243327</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.02887611685496153</v>
+        <v>-0.009348381912790997</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.02899395049912351</v>
+        <v>-0.004956465435350254</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01510494595401678</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
         <v>-0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.000141736493867034</v>
       </c>
       <c r="AM9" t="n">
         <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.0001886556453902</v>
+        <v>0.02279145652204723</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.006481876092993125</v>
+        <v>0.002926186646330668</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0151101907064461</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0.02072346342266773</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.009538844789154906</v>
+        <v>0.05908952925564864</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.02008770557969333</v>
+        <v>-0.01484164137813604</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
         <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.1432839899210357</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
         <v>0</v>
@@ -5152,178 +5152,178 @@
         <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.002615736117092086</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.004924702337068511</v>
+        <v>0.04197890400916138</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007213780080641224</v>
+        <v>0.007692528122504481</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.04567690912879024</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>-0.0105264630407921</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.01092991997997678</v>
+        <v>-0.009944445066835957</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.006673277690196649</v>
+        <v>-0.04212708380749006</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0.03327555583484403</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0.007854478390303529</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.002102504552579353</v>
+        <v>0.0110439720220555</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.001705945621202091</v>
+        <v>-0.01074248485900465</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.07353247747551503</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.0002917851783368952</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.009595456080248668</v>
+        <v>-0.01410147698747566</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.02183687998912091</v>
+        <v>0.001311772709356013</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0.02636933574811826</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.001659178970450465</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.000914544923908921</v>
+        <v>0.007618761689990277</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.007537622560920906</v>
+        <v>0.005747296309896335</v>
       </c>
       <c r="CR9" t="n">
         <v>-0</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01128450270595662</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.008655269391496028</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.004170577193914766</v>
+        <v>-0.0156160042035532</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.03376169734632103</v>
+        <v>-0.003925013594938014</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0.03122551973317207</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>0.04275340423890181</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.03163197533556574</v>
+        <v>0.003455043316930415</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.07269892090279463</v>
+        <v>0.00927870254332896</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
@@ -5332,106 +5332,106 @@
         <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.006144373621888599</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
         <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>-0</v>
+        <v>0.004241018934383791</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.04830768840055759</v>
+        <v>0.04186301173244437</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01911132558915519</v>
+        <v>0.007155449865597867</v>
       </c>
       <c r="DS9" t="n">
         <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.03172961743675826</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.01768990894410321</v>
       </c>
       <c r="DY9" t="n">
         <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.01676994858235898</v>
+        <v>-0.0004567735586074885</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.03069796313762456</v>
+        <v>0.01059609733071724</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
-        <v>-0.03948657820201849</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.004428695365635512</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.02237553763969419</v>
+        <v>0.04297413637983178</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.003515612796614211</v>
+        <v>-0.009824768253959183</v>
       </c>
       <c r="EK9" t="n">
         <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.02244370178581145</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>0.02200467545414446</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.04599504953054891</v>
+        <v>-0.02469450859970111</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.02691555496425026</v>
+        <v>-0.00750859545499735</v>
       </c>
       <c r="ET9" t="n">
         <v>0</v>
@@ -5440,52 +5440,52 @@
         <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.003220854020292972</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>0.006271147836872063</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.006928781775568029</v>
+        <v>-0.009508732274216782</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.02537532792196335</v>
+        <v>0.001581160379557722</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0.03293671586996548</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
         <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>-0.00586135054403476</v>
       </c>
       <c r="FI9" t="n">
         <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.01121250971407404</v>
+        <v>-0.01515288477463473</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.01975465449275408</v>
+        <v>0.0009658930565455677</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
@@ -5494,25 +5494,25 @@
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.01150923337532017</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.01204170078748302</v>
       </c>
       <c r="FR9" t="n">
         <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.01462666659683624</v>
+        <v>-0.004680945236872405</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.03049547760502349</v>
+        <v>-0.005961716026973309</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
@@ -5521,37 +5521,37 @@
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.02175329391278588</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
         <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.0192802364282537</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.00645771731646346</v>
+        <v>0.03313553862746605</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0006287447646508284</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
